--- a/data/2001/2001.Occupation.xlsx
+++ b/data/2001/2001.Occupation.xlsx
@@ -208,7 +208,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -231,21 +231,8 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -263,31 +250,19 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFF1F1F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
-        <bgColor rgb="FFC1C1C1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF800080"/>
-        <bgColor rgb="FF800080"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -314,26 +289,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -494,7 +455,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="28">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -518,136 +479,92 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="25" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="7" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="7" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="7" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="9" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="10" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="cells" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="column field" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="field" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="field names" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="footer" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="heading 3" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="rowfield" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Test" xfId="27" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -723,9 +640,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1047240</xdr:colOff>
+      <xdr:colOff>1046880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -739,7 +656,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29880"/>
-          <a:ext cx="1047240" cy="263520"/>
+          <a:ext cx="1046880" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -765,9 +682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1047240</xdr:colOff>
+      <xdr:colOff>1046880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -781,7 +698,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29880"/>
-          <a:ext cx="1047240" cy="263520"/>
+          <a:ext cx="1046880" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -807,9 +724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1047240</xdr:colOff>
+      <xdr:colOff>1046880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -823,7 +740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29880"/>
-          <a:ext cx="1047240" cy="263520"/>
+          <a:ext cx="1046880" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -849,9 +766,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1047240</xdr:colOff>
+      <xdr:colOff>1046880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -865,7 +782,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29880"/>
-          <a:ext cx="1047240" cy="263520"/>
+          <a:ext cx="1046880" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,9 +808,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1047240</xdr:colOff>
+      <xdr:colOff>1046880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -907,7 +824,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29880"/>
-          <a:ext cx="1047240" cy="263520"/>
+          <a:ext cx="1046880" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -933,9 +850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1047240</xdr:colOff>
+      <xdr:colOff>1046880</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>293400</xdr:rowOff>
+      <xdr:rowOff>293040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -949,7 +866,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="29880"/>
-          <a:ext cx="1047240" cy="263520"/>
+          <a:ext cx="1046880" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -971,13 +888,13 @@
   </sheetPr>
   <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="15.71"/>
   </cols>
   <sheetData>
@@ -1059,7 +976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1923,12 +1840,12 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D12:E12 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="15.71"/>
   </cols>
   <sheetData>
@@ -2874,12 +2791,12 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D12:E12 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="15.71"/>
   </cols>
   <sheetData>
@@ -3825,12 +3742,12 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D12:E12 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="15.71"/>
   </cols>
   <sheetData>
@@ -4776,12 +4693,12 @@
   <dimension ref="A1:M37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="1" sqref="D12:E12 C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="15.71"/>
   </cols>
   <sheetData>
@@ -5727,12 +5644,12 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="1" sqref="D12:E12 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="1" width="15.71"/>
   </cols>
   <sheetData>
@@ -5767,7 +5684,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="D12:E12 A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5797,21 +5714,21 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+    <row r="6" s="14" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="17" t="n">
+      <c r="B7" s="16" t="n">
         <v>0.012</v>
       </c>
     </row>
@@ -5824,15 +5741,15 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G14" s="18"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F17" s="19"/>
+      <c r="F17" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
